--- a/English Speaking and GDP/Analysis GDP English.xlsx
+++ b/English Speaking and GDP/Analysis GDP English.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blog Purpose\AmirHarjo-Medium\English Speaking and GDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FC9740-4B88-4CB7-8BCB-8673CF6C8353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177E15AB-50D2-474F-A2E5-7290F5565767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{F6251410-082E-449E-9C60-8268A4CC9B6F}"/>
   </bookViews>
@@ -13448,8 +13448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30367BE5-57CD-4466-B406-2AA7066355CF}">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
